--- a/read/리디북스 프로젝트 일정표.xlsx
+++ b/read/리디북스 프로젝트 일정표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\errormin\Desktop\ridibooksProject\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068BF559-FF05-41C1-8FE4-84614D70F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>헤더, 메인, 푸터 부분 분류
 및 각 페이지 연결</t>
@@ -105,13 +104,29 @@
   <si>
     <t>알림, 카트, 마이리디 구현
 및 세부 기능 구현</t>
+  </si>
+  <si>
+    <r>
+      <t>회원탈퇴 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +150,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -405,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +494,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,14 +527,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +713,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -697,7 +722,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1030,42 +1055,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:14" ht="32.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1090,12 +1115,12 @@
       <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="2:14" ht="32.700000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="2:14" ht="32.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1111,10 +1136,10 @@
       <c r="K5" s="10"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="30"/>
-    </row>
-    <row r="6" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="23"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1128,27 +1153,27 @@
       <c r="K6" s="10"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1156,16 +1181,16 @@
       <c r="E8" s="9"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="2:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="26"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1175,14 +1200,14 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="23"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1194,12 +1219,12 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="30"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="27" t="s">
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1215,10 +1240,10 @@
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="28"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1232,85 +1257,102 @@
       <c r="K12" s="10"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="28"/>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="30"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="28"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="31"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="30"/>
-    </row>
-    <row r="15" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="28"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
       <c r="C15" s="5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="31"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="29"/>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="30"/>
-    </row>
-    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="33" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="32"/>
+      <c r="C17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>

--- a/read/리디북스 프로젝트 일정표.xlsx
+++ b/read/리디북스 프로젝트 일정표.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\errormin\Desktop\ridibooksProject\read\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ridibooks\read\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>헤더, 메인, 푸터 부분 분류
 및 각 페이지 연결</t>
@@ -118,6 +118,22 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 구현</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 아이디찾기, 비밀번호 찾기등 세부 내용 추가할 것</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -211,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -421,13 +437,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,6 +530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,8 +557,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,25 +1102,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:14" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1150,7 @@
       <c r="N4" s="22"/>
     </row>
     <row r="5" spans="2:14" ht="32.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1139,7 +1169,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1186,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1203,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1220,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="26"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1237,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1254,7 @@
       <c r="N10" s="22"/>
     </row>
     <row r="11" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1243,7 +1273,7 @@
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1260,8 +1290,8 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="12"/>
@@ -1277,16 +1307,14 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="9"/>
@@ -1294,65 +1322,101 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="23"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="23"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="32"/>
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="33"/>
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B11:B19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
